--- a/SDK/SDK接口测试报告.xlsx
+++ b/SDK/SDK接口测试报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\收尾文件\SDK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\工作文件汇总\铁科院\github\文档\SDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
   <si>
     <t>测试地点：</t>
   </si>
@@ -582,6 +582,322 @@
   </si>
   <si>
     <t>{"flag":1,"msg":"Success","data":"H:\\工作文件汇总\\铁科院\\程序\\轨检\\data\\cit\\tqiResult.xls"}</t>
+  </si>
+  <si>
+    <t>手工里程修正</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateAccessDb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建access数据库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"filePath":"H:\\test.mdb"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"创建成功","data":"H:\\test.mdb"}</t>
+  </si>
+  <si>
+    <t>IsExistAccessDb</t>
+  </si>
+  <si>
+    <t>CreateAccessTable</t>
+  </si>
+  <si>
+    <t>IsExistAccessTable</t>
+  </si>
+  <si>
+    <t>GetAccessTables</t>
+  </si>
+  <si>
+    <t>Run_SQL</t>
+  </si>
+  <si>
+    <t>Get_DataTable</t>
+  </si>
+  <si>
+    <t>运行OleDb语句返回 DataTable</t>
+  </si>
+  <si>
+    <t>返回 DataTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行OleDb语句</t>
+  </si>
+  <si>
+    <t>获取指定数据库的所有的表结构信息</t>
+  </si>
+  <si>
+    <t>获取所有的表结构信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断数据库中是否存在指定的表名</t>
+  </si>
+  <si>
+    <t>是否存在指定的表名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建数据库表</t>
+  </si>
+  <si>
+    <t>判断是不是存在当前路径名称的数据库</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"数据库已存在","data":"H:\\test.mdb"}</t>
+  </si>
+  <si>
+    <t>{"filePath":"H:\\test.mdb","tableName":"table"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"数据库中已存在当前库表","data":"H:\\test.mdb"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"[{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"BasicInfo\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":\"启动参数表\",\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-04T21:59:29.302\",\"DATE_MODIFIED\":\"2017-04-27T14:46:35.109\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"BoundaryLine\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2017-04-25T08:55:36.417\",\"DATE_MODIFIED\":\"2017-04-25T08:57:57.761\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"CalculaterParamter\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":\"计算参数表\",\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-04T23:33:57.967\",\"DATE_MODIFIED\":\"2016-10-05T09:30:29.178\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"ChannelFreqParamter\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":\"通道参数表\",\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-04T23:39:32.869\",\"DATE_MODIFIED\":\"2016-10-04T23:45:22.332\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"DeviationParameter\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-27T23:08:47.697\",\"DATE_MODIFIED\":\"2016-12-25T16:33:46.593\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"Line\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":\"线路名表\",\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-04T17:01:49.852\",\"DATE_MODIFIED\":\"2017-05-11T10:43:46.39\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"LineInfo\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-27T20:08:48.015\",\"DATE_MODIFIED\":\"2017-05-23T19:05:10.494\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"RmsMeanInfo\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-27T20:11:10.391\",\"DATE_MODIFIED\":\"2017-05-11T10:43:52.993\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-27T22:27:19.689\",\"DATE_MODIFIED\":\"2016-11-21T23:02:57.779\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook_CGGS\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2017-05-11T15:39:57.109\",\"DATE_MODIFIED\":\"2017-05-11T15:39:57.14\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook_CGGX\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2017-05-11T15:22:21.156\",\"DATE_MODIFIED\":\"2017-05-11T15:40:15.078\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook_GJGS\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2017-05-11T15:32:52.64\",\"DATE_MODIFIED\":\"2017-05-11T15:32:52.671\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook_GJGX\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2017-05-11T15:27:30.781\",\"DATE_MODIFIED\":\"2017-05-11T15:27:30.812\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook_GJHS\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-11-01T13:17:52.942\",\"DATE_MODIFIED\":\"2016-12-16T16:33:35.357\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"StandingBook_GJHX\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":null,\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-30T22:24:51.525\",\"DATE_MODIFIED\":\"2016-12-16T16:47:17.641\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"SurveyDirection\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":\"检测方向表\",\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-04T17:03:47.283\",\"DATE_MODIFIED\":\"2016-11-08T07:29:44.84\"},{\"TABLE_CATALOG\":null,\"TABLE_SCHEMA\":null,\"TABLE_NAME\":\"SurveyVehicleVersion\",\"TABLE_TYPE\":\"TABLE\",\"TABLE_GUID\":null,\"DESCRIPTION\":\"监测车型号\",\"TABLE_PROPID\":null,\"DATE_CREATED\":\"2016-10-04T16:59:23.091\",\"DATE_MODIFIED\":\"2017-05-11T10:43:21.701\"}]"}</t>
+  </si>
+  <si>
+    <t>{"filePath":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\VehicleAcceleration\\VehicleAcceleration\\bin\\Debug\\db\\basic.mdb","tableName":""}</t>
+  </si>
+  <si>
+    <t>{"filePath":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\VehicleAcceleration\\VehicleAcceleration\\bin\\Debug\\db\\basic.mdb","SQL":"select * from BasicInfo  where IsComplete&lt;&gt;0 ","ConnStr":"Provider=Microsoft.Jet.OLEDB.4.0 ;Data Source=H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\VehicleAcceleration\\VehicleAcceleration\\bin\\Debug\\db\\basic.mdb"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"0"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"0"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"filePath":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\VehicleAcceleration\\VehicleAcceleration\\bin\\Debug\\db\\basic.mdb","SQL":"select * from BasicInfo  ","ConnStr":"Provider=Microsoft.Jet.OLEDB.4.0 ;Data Source=H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\VehicleAcceleration\\VehicleAcceleration\\bin\\Debug\\db\\basic.mdb","Table_name":"BasicInfo"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"[{\"ID\":116,\"SurveyorName\":\"44\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHX\",\"WalkType\":\"上行\",\"MileageType\":\"增里程\",\"OrigialMileage\":44.0,\"SurveyDirection\":\"1车在前\",\"RunDirection\":\"正向运行\",\"RunDate\":\"2016-12-30\",\"RunTime\":\"0时2分59秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":1.0,\"MileMore200\":1.0},{\"ID\":124,\"SurveyorName\":\"liyang\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHX\",\"WalkType\":\"上行\",\"MileageType\":\"增里程\",\"OrigialMileage\":1.0,\"SurveyDirection\":\"1车在前\",\"RunDirection\":\"正向运行\",\"RunDate\":\"2017-01-03\",\"RunTime\":\"0时7分41秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":1.0,\"MileMore200\":1.0},{\"ID\":125,\"SurveyorName\":\"于淼\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHS\",\"WalkType\":\"上行\",\"MileageType\":\"减里程\",\"OrigialMileage\":845.0,\"SurveyDirection\":\"1车在前\",\"RunDirection\":\"正向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"4时16分44秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":849.0,\"MileMore200\":0.0},{\"ID\":126,\"SurveyorName\":\"于淼\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHS\",\"WalkType\":\"上行\",\"MileageType\":\"减里程\",\"OrigialMileage\":845.0,\"SurveyDirection\":\"1车在前\",\"RunDirection\":\"正向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"1时20分16秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":160.0,\"MileMore200\":160.0},{\"ID\":127,\"SurveyorName\":\"于淼\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHS\",\"WalkType\":\"上行\",\"MileageType\":\"减里程\",\"OrigialMileage\":845.0,\"SurveyDirection\":\"1车在前\",\"RunDirection\":\"正向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"1时59分49秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":238.000671386719,\"MileMore200\":169.64},{\"ID\":128,\"SurveyorName\":\"于淼\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":840.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"正向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"0时3分6秒\",\"SerialNumber\":\"\",\"IsComplete\":2,\"ActualMile\":248.000610351563,\"MileMore200\":179.08},{\"ID\":129,\"SurveyorName\":\"于淼\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":845.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"反向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"0时0分18秒\",\"SerialNumber\":\"\",\"IsComplete\":2,\"ActualMile\":252.000793457031,\"MileMore200\":181.41},{\"ID\":130,\"SurveyorName\":\"YUMIAO\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJHX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":980.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"反向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"0时1分34秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":0.0,\"MileMore200\":0.0},{\"ID\":131,\"SurveyorName\":\"yu\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJGX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":0.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"反向运行\",\"RunDate\":\"2016-08-21\",\"RunTime\":\"0时0分47秒\",\"SerialNumber\":\"\",\"IsComplete\":2,\"ActualMile\":0.0,\"MileMore200\":0.0},{\"ID\":132,\"SurveyorName\":\"yu\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJGX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":0.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"反向运行\",\"RunDate\":\"2017-05-22\",\"RunTime\":\"0时3分7秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":3001.99877929688,\"MileMore200\":0.0},{\"ID\":133,\"SurveyorName\":\"yu\",\"SurveyVehicleVersion\":\"CRH2A-2010\",\"LineName\":\"GJGX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":20.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"反向运行\",\"RunDate\":\"2017-05-22\",\"RunTime\":\"0时0分50秒\",\"SerialNumber\":\"\",\"IsComplete\":1,\"ActualMile\":3001.998046875,\"MileMore200\":0.0},{\"ID\":134,\"SurveyorName\":\"yu\",\"SurveyVehicleVersion\":\"CRH380AJ-0202\",\"LineName\":\"GJGX\",\"WalkType\":\"下行\",\"MileageType\":\"增里程\",\"OrigialMileage\":0.0,\"SurveyDirection\":\"8车在前\",\"RunDirection\":\"反向运行\",\"RunDate\":\"2017-05-22\",\"RunTime\":\"0时1分4秒\",\"SerialNumber\":\"\",\"IsComplete\":2,\"ActualMile\":0.0,\"MileMore200\":0.0}]"}</t>
+  </si>
+  <si>
+    <t>RunFixingAlgorithm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadMilestoneFixTable</t>
+  </si>
+  <si>
+    <t>运行里程修正算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取里程修正表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取里程修正信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit文件的文件路径、idf文件的文件路径、innerdb文件的文件路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMileageReviseData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取里程修正后的数据</t>
+  </si>
+  <si>
+    <t>未修正的里程数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正过的里程数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取里程修正信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cit操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>channelDefinitionList</t>
+  </si>
+  <si>
+    <t>GetChannelIdByName</t>
+  </si>
+  <si>
+    <t>GetChannelEnNameById</t>
+  </si>
+  <si>
+    <t>GetChannelChNameById</t>
+  </si>
+  <si>
+    <t>GetChannleScale</t>
+  </si>
+  <si>
+    <t>GetChannelScaleByName</t>
+  </si>
+  <si>
+    <t>GetFileInformation</t>
+  </si>
+  <si>
+    <t>获取通道集合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取整个通道信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取通道号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据通道名称查找通道号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据通道号查询通道英文名称</t>
+  </si>
+  <si>
+    <t>根据通道号查询通道中文名称</t>
+  </si>
+  <si>
+    <t>根据通道号查询通道比例</t>
+  </si>
+  <si>
+    <t>根据通道名称获取通道比例</t>
+  </si>
+  <si>
+    <t>根据cit获取文件头部信息</t>
+  </si>
+  <si>
+    <t>GetExtraInfo</t>
+  </si>
+  <si>
+    <t>获取文件头补充信息</t>
+  </si>
+  <si>
+    <t>GetAllMileStone</t>
+  </si>
+  <si>
+    <t>得到文件中的所有里程信息</t>
+  </si>
+  <si>
+    <t>GetMileStoneByRangeByStartFilePosEndFilePos</t>
+  </si>
+  <si>
+    <t>得到文件中的指定范文的里程信息</t>
+  </si>
+  <si>
+    <t>GetStartMilestone</t>
+  </si>
+  <si>
+    <t>GetEndMilestone</t>
+  </si>
+  <si>
+    <t>GetAppointMilestone</t>
+  </si>
+  <si>
+    <t>根据文件指针获取对应的里程标</t>
+  </si>
+  <si>
+    <t>读取其里程信息</t>
+  </si>
+  <si>
+    <t>找到最后一个采样点，读取其里程信息</t>
+  </si>
+  <si>
+    <t>找到第一个采样点，读取其里程信息</t>
+  </si>
+  <si>
+    <t>GetMilestoneFilePosition</t>
+  </si>
+  <si>
+    <t>获取指定里程的位置</t>
+  </si>
+  <si>
+    <t>{"citFile":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"[{\"sID\":1,\"sNameEn\":\"KM\",\"sNameCh\":\"公里\",\"fScale\":1.0,\"fOffset\":0.0,\"sUnit\":\"Km\"},{\"sID\":2,\"sNameEn\":\"M\",\"sNameCh\":\"米\",\"fScale\":4.0,\"fOffset\":0.0,\"sUnit\":\"m\"},{\"sID\":3,\"sNameEn\":\"左轴垂2\",\"sNameCh\":\"左轴垂2\",\"fScale\":10.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":4,\"sNameEn\":\"右轴垂2\",\"sNameCh\":\"右轴横2\",\"fScale\":10.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":5,\"sNameEn\":\"左轴横2\",\"sNameCh\":\"左轴横2\",\"fScale\":10.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":6,\"sNameEn\":\"左构垂2\",\"sNameCh\":\"左构垂2\",\"fScale\":100.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":7,\"sNameEn\":\"左构横2\",\"sNameCh\":\"左构横2\",\"fScale\":100.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":8,\"sNameEn\":\"车体横2\",\"sNameCh\":\"车体横2\",\"fScale\":10000.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":9,\"sNameEn\":\"车体纵2\",\"sNameCh\":\"车体纵2\",\"fScale\":10000.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":10,\"sNameEn\":\"车体垂2\",\"sNameCh\":\"车体垂2\",\"fScale\":10000.0,\"fOffset\":0.0,\"sUnit\":\"g\"},{\"sID\":11,\"sNameEn\":\"CAR82_KM\",\"sNameCh\":\"CAR82_KM\",\"fScale\":1.0,\"fOffset\":0.0,\"sUnit\":\"Km\"},{\"sID\":12,\"sNameEn\":\"CAR82_M\",\"sNameCh\":\"CAR82_M\",\"fScale\":1.0,\"fOffset\":0.0,\"sUnit\":\"m\"},{\"sID\":13,\"sNameEn\":\"SPEED_CAR82\",\"sNameCh\":\"SPEED_CAR82\",\"fScale\":10.0,\"fOffset\":0.0,\"sUnit\":\"Km/h\"},{\"sID\":14,\"sNameEn\":\"里程\",\"sNameCh\":\"里程\",\"fScale\":1000.0,\"fOffset\":0.0,\"sUnit\":\"Km\"},{\"sID\":15,\"sNameEn\":\"SPEED\",\"sNameCh\":\"速度\",\"fScale\":10.0,\"fOffset\":0.0,\"sUnit\":\"Km/h\"}]"}</t>
+  </si>
+  <si>
+    <t>{"citFile":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit","channelNameEn":"KM","channelId":2}</t>
+  </si>
+  <si>
+    <t>{"citFile":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit","channelId":2}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"1"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"M"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"米"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"4"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"{\"iDataType\":2,\"sDataVersion\":\"1.0.0\",\"sTrackCode\":\"8001\",\"sTrackName\":\"CNGX\",\"iDir\":2,\"sTrain\":\"CIT400\",\"sDate\":\"2016-04-24\",\"sTime\":\"06:34:32\",\"iRunDir\":0,\"iKmInc\":0,\"fkmFrom\":12.6,\"fkmTo\":0.0,\"iSmaleRate\":4,\"iChannelNumber\":15}"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"{\"iDataType\":2,\"sDataVersion\":\"1.0.0\",\"sTrackCode\":\"8001\",\"sTrackName\":\"CNGX\",\"iDir\":2,\"sTrain\":\"CIT400\",\"sDate\":\"2016-04-24\",\"sTime\":\"06:34:32\",\"iRunDir\":0,\"iKmInc\":0,\"fkmFrom\":12.6,\"fkmTo\":0.0,\"iSmaleRate\":4,\"iChannelNumber\":15}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":""}</t>
+  </si>
+  <si>
+    <t>{"citFile":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit","startFilePos":3000,"endFilePos":5000}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"[{\"mFilePosition\":3000,\"mFileEndPostion\":3030,\"mKm\":-1536.0,\"mMeter\":5567.75},{\"mFilePosition\":3030,\"mFileEndPostion\":3060,\"mKm\":-1792.0,\"mMeter\":5567.75},{\"mFilePosition\":3060,\"mFileEndPostion\":3090,\"mKm\":-1537.0,\"mMeter\":5567.75},{\"mFilePosition\":3090,\"mFileEndPostion\":3120,\"mKm\":-1537.0,\"mMeter\":5375.75},{\"mFilePosition\":3120,\"mFileEndPostion\":3150,\"mKm\":-1792.0,\"mMeter\":4799.75},{\"mFilePosition\":3150,\"mFileEndPostion\":3180,\"mKm\":-1792.0,\"mMeter\":4287.75},{\"mFilePosition\":3180,\"mFileEndPostion\":3210,\"mKm\":-1536.0,\"mMeter\":3903.75},{\"mFilePosition\":3210,\"mFileEndPostion\":3240,\"mKm\":-1280.0,\"mMeter\":3839.75},{\"mFilePosition\":3240,\"mFileEndPostion\":3270,\"mKm\":-1280.0,\"mMeter\":3839.75},{\"mFilePosition\":3270,\"mFileEndPostion\":3300,\"mKm\":-1280.0,\"mMeter\":3903.75},{\"mFilePosition\":3300,\"mFileEndPostion\":3330,\"mKm\":-1280.0,\"mMeter\":4031.75},{\"mFilePosition\":3330,\"mFileEndPostion\":3360,\"mKm\":-1280.0,\"mMeter\":3711.75},{\"mFilePosition\":3360,\"mFileEndPostion\":3390,\"mKm\":-1024.0,\"mMeter\":3327.75},{\"mFilePosition\":3390,\"mFileEndPostion\":3420,\"mKm\":-1024.0,\"mMeter\":3199.75},{\"mFilePosition\":3420,\"mFileEndPostion\":3450,\"mKm\":-1280.0,\"mMeter\":3135.75},{\"mFilePosition\":3450,\"mFileEndPostion\":3480,\"mKm\":-1280.0,\"mMeter\":3391.75},{\"mFilePosition\":3480,\"mFileEndPostion\":3510,\"mKm\":-1024.0,\"mMeter\":3519.75},{\"mFilePosition\":3510,\"mFileEndPostion\":3540,\"mKm\":-1024.0,\"mMeter\":3327.75},{\"mFilePosition\":3540,\"mFileEndPostion\":3570,\"mKm\":-1280.0,\"mMeter\":3007.75},{\"mFilePosition\":3570,\"mFileEndPostion\":3600,\"mKm\":-1536.0,\"mMeter\":3007.75},{\"mFilePosition\":3600,\"mFileEndPostion\":3630,\"mKm\":-1280.0,\"mMeter\":3327.75},{\"mFilePosition\":3630,\"mFileEndPostion\":3660,\"mKm\":-1024.0,\"mMeter\":3711.75},{\"mFilePosition\":3660,\"mFileEndPostion\":3690,\"mKm\":-1280.0,\"mMeter\":3711.75},{\"mFilePosition\":3690,\"mFileEndPostion\":3720,\"mKm\":-1536.0,\"mMeter\":3583.75},{\"mFilePosition\":3720,\"mFileEndPostion\":3750,\"mKm\":-1536.0,\"mMeter\":3583.75},{\"mFilePosition\":3750,\"mFileEndPostion\":3780,\"mKm\":-1536.0,\"mMeter\":4031.75},{\"mFilePosition\":3780,\"mFileEndPostion\":3810,\"mKm\":-1536.0,\"mMeter\":4095.75},{\"mFilePosition\":3810,\"mFileEndPostion\":3840,\"mKm\":-1792.0,\"mMeter\":4095.75},{\"mFilePosition\":3840,\"mFileEndPostion\":3870,\"mKm\":-2048.0,\"mMeter\":3711.75},{\"mFilePosition\":3870,\"mFileEndPostion\":3900,\"mKm\":-2048.0,\"mMeter\":3583.75},{\"mFilePosition\":3900,\"mFileEndPostion\":3930,\"mKm\":-1792.0,\"mMeter\":3839.75},{\"mFilePosition\":3930,\"mFileEndPostion\":3960,\"mKm\":-1792.0,\"mMeter\":4287.75},{\"mFilePosition\":3960,\"mFileEndPostion\":3990,\"mKm\":-2048.0,\"mMeter\":4799.75},{\"mFilePosition\":3990,\"mFileEndPostion\":4020,\"mKm\":-1792.0,\"mMeter\":4927.75},{\"mFilePosition\":4020,\"mFileEndPostion\":4050,\"mKm\":-1792.0,\"mMeter\":4735.75},{\"mFilePosition\":4050,\"mFileEndPostion\":4080,\"mKm\":-1536.0,\"mMeter\":4607.75},{\"mFilePosition\":4080,\"mFileEndPostion\":4110,\"mKm\":-1536.0,\"mMeter\":4479.75},{\"mFilePosition\":4110,\"mFileEndPostion\":4140,\"mKm\":-1536.0,\"mMeter\":4607.75},{\"mFilePosition\":4140,\"mFileEndPostion\":4170,\"mKm\":-1280.0,\"mMeter\":4415.75},{\"mFilePosition\":4170,\"mFileEndPostion\":4200,\"mKm\":-1025.0,\"mMeter\":4095.75},{\"mFilePosition\":4200,\"mFileEndPostion\":4230,\"mKm\":-1025.0,\"mMeter\":3711.75},{\"mFilePosition\":4230,\"mFileEndPostion\":4260,\"mKm\":-769.0,\"mMeter\":3711.75},{\"mFilePosition\":4260,\"mFileEndPostion\":4290,\"mKm\":-769.0,\"mMeter\":3839.75},{\"mFilePosition\":4290,\"mFileEndPostion\":4320,\"mKm\":-1025.0,\"mMeter\":4031.75},{\"mFilePosition\":4320,\"mFileEndPostion\":4350,\"mKm\":-1025.0,\"mMeter\":3903.75},{\"mFilePosition\":4350,\"mFileEndPostion\":4380,\"mKm\":-1281.0,\"mMeter\":4095.75},{\"mFilePosition\":4380,\"mFileEndPostion\":4410,\"mKm\":-1280.0,\"mMeter\":4095.75},{\"mFilePosition\":4410,\"mFileEndPostion\":4440,\"mKm\":-1024.0,\"mMeter\":3903.75},{\"mFilePosition\":4440,\"mFileEndPostion\":4470,\"mKm\":-1024.0,\"mMeter\":3583.75},{\"mFilePosition\":4470,\"mFileEndPostion\":4500,\"mKm\":-1280.0,\"mMeter\":3327.75},{\"mFilePosition\":4500,\"mFileEndPostion\":4530,\"mKm\":-1280.0,\"mMeter\":3199.75},{\"mFilePosition\":4530,\"mFileEndPostion\":4560,\"mKm\":-1280.0,\"mMeter\":3391.75},{\"mFilePosition\":4560,\"mFileEndPostion\":4590,\"mKm\":-1280.0,\"mMeter\":3583.75},{\"mFilePosition\":4590,\"mFileEndPostion\":4620,\"mKm\":-1280.0,\"mMeter\":3839.75},{\"mFilePosition\":4620,\"mFileEndPostion\":4650,\"mKm\":-1280.0,\"mMeter\":3711.75},{\"mFilePosition\":4650,\"mFileEndPostion\":4680,\"mKm\":-1280.0,\"mMeter\":3711.75},{\"mFilePosition\":4680,\"mFileEndPostion\":4710,\"mKm\":-1536.0,\"mMeter\":3583.75},{\"mFilePosition\":4710,\"mFileEndPostion\":4740,\"mKm\":-1536.0,\"mMeter\":3519.75},{\"mFilePosition\":4740,\"mFileEndPostion\":4770,\"mKm\":-1536.0,\"mMeter\":3327.75},{\"mFilePosition\":4770,\"mFileEndPostion\":4800,\"mKm\":-1536.0,\"mMeter\":3135.75},{\"mFilePosition\":4800,\"mFileEndPostion\":4830,\"mKm\":-1280.0,\"mMeter\":3327.75},{\"mFilePosition\":4830,\"mFileEndPostion\":4860,\"mKm\":-1025.0,\"mMeter\":3519.75},{\"mFilePosition\":4860,\"mFileEndPostion\":4890,\"mKm\":-1025.0,\"mMeter\":3711.75},{\"mFilePosition\":4890,\"mFileEndPostion\":4920,\"mKm\":-1025.0,\"mMeter\":3839.75},{\"mFilePosition\":4920,\"mFileEndPostion\":4950,\"mKm\":-1025.0,\"mMeter\":3839.75},{\"mFilePosition\":4950,\"mFileEndPostion\":4980,\"mKm\":-769.0,\"mMeter\":3583.75}]"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"{\"mFilePosition\":1099,\"mFileEndPostion\":1129,\"mKm\":12.0,\"mMeter\":569.25}"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"{\"mFilePosition\":747901069,\"mFileEndPostion\":747901099,\"mKm\":0.0,\"mMeter\":0.0}"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"{\"mFilePosition\":6000,\"mFileEndPostion\":-1,\"mKm\":-1280.0,\"mMeter\":4479.75}"}</t>
+  </si>
+  <si>
+    <t>{"citFile":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit","filePos":6000}</t>
+  </si>
+  <si>
+    <t>{"citFile":"H:\\工作文件汇总\\铁科院\\程序\\车载加速度\\数据文件\\CitData_160424063432_CNGX.cit","mileStone":300.0}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"{\"mFilePosition\":6000,\"mFileEndPostion\":-1,\"mKm\":-1280.0,\"mMeter\":4479.75}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"","data":"3690"}</t>
   </si>
 </sst>
 </file>
@@ -892,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +1281,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -977,9 +1299,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1001,8 +1320,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1310,122 +1641,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B36" sqref="B36:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="51.75" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="38" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="38" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
@@ -1463,7 +1794,7 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -1495,7 +1826,7 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1856,7 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +1886,7 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
@@ -1585,7 +1916,7 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13" t="s">
         <v>57</v>
       </c>
@@ -1615,7 +1946,7 @@
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1976,7 @@
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +2006,7 @@
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="13" t="s">
         <v>60</v>
       </c>
@@ -1705,7 +2036,7 @@
       <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13" t="s">
         <v>61</v>
       </c>
@@ -1735,7 +2066,7 @@
       <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="13" t="s">
         <v>62</v>
       </c>
@@ -1765,7 +2096,7 @@
       <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1797,7 +2128,7 @@
       <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="13" t="s">
         <v>27</v>
       </c>
@@ -1827,7 +2158,7 @@
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
@@ -1857,7 +2188,7 @@
       <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
@@ -1887,7 +2218,7 @@
       <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +2248,7 @@
       <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="13" t="s">
         <v>31</v>
       </c>
@@ -1947,7 +2278,7 @@
       <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="13" t="s">
         <v>32</v>
       </c>
@@ -2009,7 +2340,7 @@
       <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -2041,7 +2372,7 @@
       <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
@@ -2067,8 +2398,644 @@
         <v>14</v>
       </c>
     </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1">
+      <c r="A29" s="2">
+        <v>21</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1">
+      <c r="A30" s="2">
+        <v>22</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1">
+      <c r="A31" s="2">
+        <v>23</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="40.5">
+      <c r="A32" s="2">
+        <v>24</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="200.1" customHeight="1">
+      <c r="A33" s="2">
+        <v>25</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A34" s="2">
+        <v>26</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="101.25" customHeight="1">
+      <c r="A35" s="2">
+        <v>27</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="101.25" customHeight="1">
+      <c r="A36" s="2">
+        <v>28</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="54">
+      <c r="A37" s="2">
+        <v>29</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="40.5">
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A39" s="2">
+        <v>31</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A40" s="2">
+        <v>32</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A41" s="2">
+        <v>33</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="98.25" customHeight="1">
+      <c r="A42" s="2">
+        <v>34</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A43" s="2">
+        <v>35</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="58.5" customHeight="1">
+      <c r="A44" s="2">
+        <v>36</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="68.25" customHeight="1">
+      <c r="A45" s="2">
+        <v>37</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A46" s="2">
+        <v>38</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A47" s="2">
+        <v>39</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A48" s="2">
+        <v>40</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A49" s="2">
+        <v>41</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B49"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A6:J6"/>
@@ -2082,7 +3049,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I49">
       <formula1>"通过,未通过,未测试"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2095,7 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2112,102 +3079,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
@@ -2245,7 +3212,7 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2277,7 +3244,7 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="13" t="s">
         <v>116</v>
       </c>
@@ -2307,7 +3274,7 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="13" t="s">
         <v>120</v>
       </c>
@@ -2337,7 +3304,7 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="13" t="s">
         <v>124</v>
       </c>
@@ -2350,10 +3317,10 @@
       <c r="F12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="24" t="s">
         <v>127</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -2418,122 +3385,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="34.875" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
@@ -2599,8 +3566,101 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -2611,7 +3671,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I12">
       <formula1>"通过,未通过,未测试"</formula1>
     </dataValidation>
   </dataValidations>
